--- a/biology/Zoologie/Diabrotica_undecimpunctata/Diabrotica_undecimpunctata.xlsx
+++ b/biology/Zoologie/Diabrotica_undecimpunctata/Diabrotica_undecimpunctata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diabrotica undecimpunctata, la chrysomèle maculée du concombre, est une espèce d'insectes coléoptères de la famille des Chrysomelidae, originaire d'Amérique du Nord.
-C'est un insecte phytophage qui attaque de nombreuses espèces de plantes, notamment de la famille des Cucurbitaceae (en particulier Cucumis sativus, Cucumis melo, Cucurbita pepo, Citrullus lanatus) mais aussi des Fabaceae (Arachis hypogaea, Glycine max, Phaseolus vulgaris, etc), des céréales (Zea mays), des Convolvulaceae(Ipomoea batatas)[2].
+C'est un insecte phytophage qui attaque de nombreuses espèces de plantes, notamment de la famille des Cucurbitaceae (en particulier Cucumis sativus, Cucumis melo, Cucurbita pepo, Citrullus lanatus) mais aussi des Fabaceae (Arachis hypogaea, Glycine max, Phaseolus vulgaris, etc), des céréales (Zea mays), des Convolvulaceae(Ipomoea batatas).
 </t>
         </is>
       </c>
@@ -512,13 +524,49 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (3 novembre 2019)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (3 novembre 2019) :
 Diabrotica duodecimpunctata (Fabricius)
-Diabrotica sororLeConte, 1865
-Liste des sous-espèces
-Selon BioLib                    (3 novembre 2019)[3] :
+Diabrotica sororLeConte, 1865</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Diabrotica_undecimpunctata</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diabrotica_undecimpunctata</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (3 novembre 2019) :
 sous-espèce Diabrotica undecimpunctata howardi Barber, 1947
 sous-espèce Diabrotica undecimpunctata tenella LeConte, 1858
 sous-espèce Diabrotica undecimpunctata undecimpunctata Mannerheim, 1843</t>
